--- a/dengue serotypes.xlsx
+++ b/dengue serotypes.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Najmul Bhai\Dengue\Dengue South-Asia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D98E2F-8F19-492C-85B8-A14C70A4E24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78120150-13E0-499A-B9DA-F107CCE71F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$193</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="7AO/3gx68glf71tosF0ge594NgrE3BWPwtM/jKQxqtw="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -366,10 +361,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -399,7 +395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -419,7 +415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -439,7 +435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -459,7 +455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -499,7 +495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2000</v>
       </c>
@@ -519,7 +515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2000</v>
       </c>
@@ -539,7 +535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2000</v>
       </c>
@@ -559,7 +555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2001</v>
       </c>
@@ -579,7 +575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2001</v>
       </c>
@@ -599,7 +595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2001</v>
       </c>
@@ -619,7 +615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -659,7 +655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2001</v>
       </c>
@@ -679,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2001</v>
       </c>
@@ -699,7 +695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2001</v>
       </c>
@@ -719,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2002</v>
       </c>
@@ -739,7 +735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
@@ -759,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2002</v>
       </c>
@@ -779,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2002</v>
       </c>
@@ -819,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2002</v>
       </c>
@@ -839,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2002</v>
       </c>
@@ -859,7 +855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2002</v>
       </c>
@@ -879,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2003</v>
       </c>
@@ -899,7 +895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2003</v>
       </c>
@@ -919,7 +915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2003</v>
       </c>
@@ -939,7 +935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2003</v>
       </c>
@@ -979,7 +975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2003</v>
       </c>
@@ -999,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2003</v>
       </c>
@@ -1019,7 +1015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2003</v>
       </c>
@@ -1039,7 +1035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2004</v>
       </c>
@@ -1059,7 +1055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2004</v>
       </c>
@@ -1099,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2004</v>
       </c>
@@ -1119,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2004</v>
       </c>
@@ -1139,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2004</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2004</v>
       </c>
@@ -1179,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2004</v>
       </c>
@@ -1199,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2005</v>
       </c>
@@ -1219,7 +1215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2005</v>
       </c>
@@ -1239,7 +1235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2005</v>
       </c>
@@ -1279,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2005</v>
       </c>
@@ -1299,7 +1295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2005</v>
       </c>
@@ -1319,7 +1315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2005</v>
       </c>
@@ -1339,7 +1335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2005</v>
       </c>
@@ -1359,7 +1355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2006</v>
       </c>
@@ -1379,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2006</v>
       </c>
@@ -1419,7 +1415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2006</v>
       </c>
@@ -1439,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2006</v>
       </c>
@@ -1459,7 +1455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2006</v>
       </c>
@@ -1479,7 +1475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2006</v>
       </c>
@@ -1499,7 +1495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2006</v>
       </c>
@@ -1519,7 +1515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2007</v>
       </c>
@@ -1539,7 +1535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2007</v>
       </c>
@@ -1559,7 +1555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2007</v>
       </c>
@@ -1579,7 +1575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2007</v>
       </c>
@@ -1619,7 +1615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2007</v>
       </c>
@@ -1639,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2007</v>
       </c>
@@ -1659,7 +1655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2007</v>
       </c>
@@ -1679,7 +1675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2008</v>
       </c>
@@ -1699,7 +1695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2008</v>
       </c>
@@ -1719,7 +1715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2008</v>
       </c>
@@ -1739,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2008</v>
       </c>
@@ -1759,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2008</v>
       </c>
@@ -1799,7 +1795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2008</v>
       </c>
@@ -1819,7 +1815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2008</v>
       </c>
@@ -1839,7 +1835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2009</v>
       </c>
@@ -1859,7 +1855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2009</v>
       </c>
@@ -1879,7 +1875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2009</v>
       </c>
@@ -1899,7 +1895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2009</v>
       </c>
@@ -1919,7 +1915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2009</v>
       </c>
@@ -1959,7 +1955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2009</v>
       </c>
@@ -1979,7 +1975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2009</v>
       </c>
@@ -1999,7 +1995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2010</v>
       </c>
@@ -2019,7 +2015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2010</v>
       </c>
@@ -2039,7 +2035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2010</v>
       </c>
@@ -2059,7 +2055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2010</v>
       </c>
@@ -2079,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2010</v>
       </c>
@@ -2099,7 +2095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2010</v>
       </c>
@@ -2139,7 +2135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2010</v>
       </c>
@@ -2159,7 +2155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2011</v>
       </c>
@@ -2179,7 +2175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2011</v>
       </c>
@@ -2199,7 +2195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2011</v>
       </c>
@@ -2219,7 +2215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2011</v>
       </c>
@@ -2239,7 +2235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2011</v>
       </c>
@@ -2279,7 +2275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2011</v>
       </c>
@@ -2299,7 +2295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2011</v>
       </c>
@@ -2339,7 +2335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2012</v>
       </c>
@@ -2359,7 +2355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2012</v>
       </c>
@@ -2379,7 +2375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2012</v>
       </c>
@@ -2399,7 +2395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2012</v>
       </c>
@@ -2419,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2012</v>
       </c>
@@ -2439,7 +2435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2012</v>
       </c>
@@ -2459,7 +2455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2012</v>
       </c>
@@ -2479,7 +2475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2013</v>
       </c>
@@ -2519,7 +2515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2013</v>
       </c>
@@ -2539,7 +2535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2013</v>
       </c>
@@ -2559,7 +2555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2013</v>
       </c>
@@ -2579,7 +2575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2013</v>
       </c>
@@ -2599,7 +2595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2013</v>
       </c>
@@ -2619,7 +2615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2013</v>
       </c>
@@ -2639,7 +2635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2014</v>
       </c>
@@ -2659,7 +2655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2014</v>
       </c>
@@ -2679,7 +2675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2014</v>
       </c>
@@ -2699,7 +2695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2014</v>
       </c>
@@ -2719,7 +2715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2014</v>
       </c>
@@ -2759,7 +2755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2014</v>
       </c>
@@ -2779,7 +2775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2014</v>
       </c>
@@ -2799,7 +2795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2015</v>
       </c>
@@ -2819,7 +2815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2015</v>
       </c>
@@ -2839,7 +2835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2015</v>
       </c>
@@ -2859,7 +2855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2015</v>
       </c>
@@ -2879,7 +2875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2015</v>
       </c>
@@ -2899,7 +2895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2015</v>
       </c>
@@ -2939,7 +2935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2015</v>
       </c>
@@ -2959,7 +2955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2016</v>
       </c>
@@ -2979,7 +2975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2016</v>
       </c>
@@ -3019,7 +3015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2016</v>
       </c>
@@ -3039,7 +3035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2016</v>
       </c>
@@ -3059,7 +3055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2016</v>
       </c>
@@ -3079,7 +3075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2016</v>
       </c>
@@ -3099,7 +3095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2016</v>
       </c>
@@ -3119,7 +3115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2017</v>
       </c>
@@ -3139,7 +3135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2017</v>
       </c>
@@ -3159,7 +3155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2017</v>
       </c>
@@ -3199,7 +3195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2017</v>
       </c>
@@ -3219,7 +3215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2017</v>
       </c>
@@ -3239,7 +3235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2017</v>
       </c>
@@ -3259,7 +3255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2017</v>
       </c>
@@ -3279,7 +3275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2018</v>
       </c>
@@ -3299,7 +3295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2018</v>
       </c>
@@ -3319,7 +3315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2018</v>
       </c>
@@ -3339,7 +3335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2018</v>
       </c>
@@ -3379,7 +3375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2018</v>
       </c>
@@ -3399,7 +3395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2018</v>
       </c>
@@ -3419,7 +3415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2018</v>
       </c>
@@ -3439,7 +3435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2019</v>
       </c>
@@ -3459,7 +3455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2019</v>
       </c>
@@ -3499,7 +3495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2019</v>
       </c>
@@ -3519,7 +3515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2019</v>
       </c>
@@ -3539,7 +3535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2019</v>
       </c>
@@ -3559,7 +3555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2019</v>
       </c>
@@ -3579,7 +3575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2019</v>
       </c>
@@ -3599,7 +3595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2020</v>
       </c>
@@ -3619,7 +3615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2020</v>
       </c>
@@ -3639,7 +3635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2020</v>
       </c>
@@ -3659,7 +3655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2020</v>
       </c>
@@ -3679,7 +3675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2020</v>
       </c>
@@ -3719,7 +3715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2020</v>
       </c>
@@ -3739,7 +3735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2020</v>
       </c>
@@ -3759,7 +3755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2021</v>
       </c>
@@ -3779,7 +3775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2021</v>
       </c>
@@ -3799,7 +3795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2021</v>
       </c>
@@ -3819,7 +3815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2021</v>
       </c>
@@ -3839,7 +3835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2021</v>
       </c>
@@ -3879,7 +3875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2021</v>
       </c>
@@ -3899,7 +3895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2021</v>
       </c>
@@ -3919,7 +3915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2022</v>
       </c>
@@ -3939,7 +3935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2022</v>
       </c>
@@ -3959,7 +3955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2022</v>
       </c>
@@ -3979,7 +3975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2022</v>
       </c>
@@ -3999,7 +3995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2022</v>
       </c>
@@ -4019,7 +4015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2022</v>
       </c>
@@ -4039,7 +4035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2022</v>
       </c>
@@ -4079,7 +4075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2023</v>
       </c>
@@ -4099,7 +4095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2023</v>
       </c>
@@ -4119,7 +4115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2023</v>
       </c>
@@ -4139,7 +4135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2023</v>
       </c>
@@ -4159,7 +4155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2023</v>
       </c>
@@ -4179,7 +4175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2023</v>
       </c>
@@ -4199,7 +4195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2023</v>
       </c>
@@ -5572,7 +5568,12 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:F193" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Bhutan"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F193">
       <sortCondition ref="A1"/>
     </sortState>

--- a/dengue serotypes.xlsx
+++ b/dengue serotypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Najmul Bhai\Dengue\Dengue South-Asia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78120150-13E0-499A-B9DA-F107CCE71F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B537C4-F6B9-4F6E-8636-31AFADCB76DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="16">
   <si>
     <t xml:space="preserve">Year </t>
   </si>
@@ -77,11 +77,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,10 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -362,10 +370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="G6" sqref="G6:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -375,7 +383,7 @@
     <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -394,8 +402,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -414,8 +434,20 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -434,8 +466,20 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
@@ -454,8 +498,20 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -474,8 +530,20 @@
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
@@ -494,8 +562,20 @@
       <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2000</v>
       </c>
@@ -514,8 +594,20 @@
       <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2000</v>
       </c>
@@ -534,8 +626,20 @@
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2000</v>
       </c>
@@ -554,8 +658,20 @@
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2001</v>
       </c>
@@ -574,8 +690,20 @@
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2001</v>
       </c>
@@ -594,8 +722,20 @@
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2001</v>
       </c>
@@ -614,8 +754,20 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2001</v>
       </c>
@@ -634,8 +786,20 @@
       <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2001</v>
       </c>
@@ -654,8 +818,20 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2001</v>
       </c>
@@ -674,8 +850,20 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2001</v>
       </c>
@@ -694,8 +882,20 @@
       <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2001</v>
       </c>
@@ -714,8 +914,20 @@
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2002</v>
       </c>
@@ -734,8 +946,20 @@
       <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2002</v>
       </c>
@@ -754,8 +978,20 @@
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2002</v>
       </c>
@@ -774,8 +1010,20 @@
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2002</v>
       </c>
@@ -794,8 +1042,20 @@
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2002</v>
       </c>
@@ -814,8 +1074,20 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2002</v>
       </c>
@@ -834,8 +1106,20 @@
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2002</v>
       </c>
@@ -854,8 +1138,20 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2002</v>
       </c>
@@ -874,8 +1170,20 @@
       <c r="F25" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2003</v>
       </c>
@@ -894,8 +1202,20 @@
       <c r="F26" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2003</v>
       </c>
@@ -914,8 +1234,20 @@
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2003</v>
       </c>
@@ -934,8 +1266,20 @@
       <c r="F28" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2003</v>
       </c>
@@ -954,8 +1298,20 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2003</v>
       </c>
@@ -975,7 +1331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2003</v>
       </c>
@@ -995,7 +1351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2003</v>
       </c>
@@ -2128,7 +2484,7 @@
       <c r="D88" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F88" s="3" t="s">
@@ -5579,7 +5935,7 @@
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Yes" sqref="C2:C25 D2:F298 C27:C298" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Yes" sqref="C2:C25 D2:F298 C27:C298 G6:J29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
